--- a/data/pca/factorExposure/factorExposure_2017-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02373550718332957</v>
+        <v>-0.009933498915201113</v>
       </c>
       <c r="C2">
-        <v>-0.0002753960729452461</v>
+        <v>-0.04428980934806632</v>
       </c>
       <c r="D2">
-        <v>0.01948828909711486</v>
+        <v>-0.02972832194193465</v>
       </c>
       <c r="E2">
-        <v>0.0123141207002048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03271109767864078</v>
+      </c>
+      <c r="F2">
+        <v>-0.009874911067993366</v>
+      </c>
+      <c r="G2">
+        <v>0.0575269525348449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01564857054940869</v>
+        <v>-0.05592112334259137</v>
       </c>
       <c r="C3">
-        <v>-0.05143592128346827</v>
+        <v>-0.06909250569233794</v>
       </c>
       <c r="D3">
-        <v>0.008719727230837802</v>
+        <v>-0.01474181174138135</v>
       </c>
       <c r="E3">
-        <v>0.01254444358947567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09867081312361206</v>
+      </c>
+      <c r="F3">
+        <v>-0.03382310094370251</v>
+      </c>
+      <c r="G3">
+        <v>0.1190577179681977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02356225848675784</v>
+        <v>-0.05932431480526821</v>
       </c>
       <c r="C4">
-        <v>-0.01995152265791528</v>
+        <v>-0.06144558054539676</v>
       </c>
       <c r="D4">
-        <v>0.06211831542948863</v>
+        <v>-0.02326453122539618</v>
       </c>
       <c r="E4">
-        <v>-0.01428133101187202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01864186725224428</v>
+      </c>
+      <c r="F4">
+        <v>-0.007098860671770483</v>
+      </c>
+      <c r="G4">
+        <v>0.06355888347886358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01495816743838</v>
+        <v>-0.04013461829583517</v>
       </c>
       <c r="C6">
-        <v>-0.009014362475676309</v>
+        <v>-0.05143923668934448</v>
       </c>
       <c r="D6">
-        <v>0.08680063687019476</v>
+        <v>-0.01570245630429351</v>
       </c>
       <c r="E6">
-        <v>-0.01114611312562227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01793862378150566</v>
+      </c>
+      <c r="F6">
+        <v>-0.01146558012040139</v>
+      </c>
+      <c r="G6">
+        <v>0.04179047512094729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01071199034422859</v>
+        <v>-0.01875099194349772</v>
       </c>
       <c r="C7">
-        <v>-0.006259557713614888</v>
+        <v>-0.03764507566555447</v>
       </c>
       <c r="D7">
-        <v>0.02780516090132077</v>
+        <v>-0.01316842164880482</v>
       </c>
       <c r="E7">
-        <v>-0.0754709444810896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008318340357938773</v>
+      </c>
+      <c r="F7">
+        <v>0.002130573345537509</v>
+      </c>
+      <c r="G7">
+        <v>0.110739825259693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>2.366218880241019e-05</v>
+        <v>-0.001271024767462766</v>
       </c>
       <c r="C8">
-        <v>-0.0006890306202263501</v>
+        <v>-0.02083124389715189</v>
       </c>
       <c r="D8">
-        <v>0.004090864199401092</v>
+        <v>-0.003708588284101272</v>
       </c>
       <c r="E8">
-        <v>-0.004303010979462452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02277541381087173</v>
+      </c>
+      <c r="F8">
+        <v>-0.01667906297978851</v>
+      </c>
+      <c r="G8">
+        <v>0.03591244269370339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01635315015607388</v>
+        <v>-0.03505227670572698</v>
       </c>
       <c r="C9">
-        <v>-0.02069988306877407</v>
+        <v>-0.04238618124706625</v>
       </c>
       <c r="D9">
-        <v>0.04754759256415576</v>
+        <v>-0.0158974690408016</v>
       </c>
       <c r="E9">
-        <v>-0.00376868823925116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01325947174025052</v>
+      </c>
+      <c r="F9">
+        <v>-0.0133132177158782</v>
+      </c>
+      <c r="G9">
+        <v>0.06326981749010527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02038816096479766</v>
+        <v>-0.09054199104182629</v>
       </c>
       <c r="C10">
-        <v>-0.164408189816679</v>
+        <v>0.1865538025248668</v>
       </c>
       <c r="D10">
-        <v>-0.1161818253884956</v>
+        <v>0.01697585011261486</v>
       </c>
       <c r="E10">
-        <v>-0.005087067060625686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01057815196369062</v>
+      </c>
+      <c r="F10">
+        <v>0.0191827397772224</v>
+      </c>
+      <c r="G10">
+        <v>0.04948653974678732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006735139427094727</v>
+        <v>-0.03532357719530788</v>
       </c>
       <c r="C11">
-        <v>-0.006951073984994919</v>
+        <v>-0.05308154238646592</v>
       </c>
       <c r="D11">
-        <v>0.041963360422233</v>
+        <v>-0.002245197982454199</v>
       </c>
       <c r="E11">
-        <v>0.00663285077715491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007172638063465351</v>
+      </c>
+      <c r="F11">
+        <v>-0.02147474750235593</v>
+      </c>
+      <c r="G11">
+        <v>0.04533692094649844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006267131195714784</v>
+        <v>-0.03690997979650968</v>
       </c>
       <c r="C12">
-        <v>-0.01298077500072144</v>
+        <v>-0.04795252861404278</v>
       </c>
       <c r="D12">
-        <v>0.04486221177333802</v>
+        <v>-0.006157345763943999</v>
       </c>
       <c r="E12">
-        <v>-0.003294164697952213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001543215743788424</v>
+      </c>
+      <c r="F12">
+        <v>-0.002655804838080656</v>
+      </c>
+      <c r="G12">
+        <v>0.04394557693398219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02251853904241994</v>
+        <v>-0.0176826333212834</v>
       </c>
       <c r="C13">
-        <v>-0.0153507369382395</v>
+        <v>-0.03422260228708371</v>
       </c>
       <c r="D13">
-        <v>0.01092634283639645</v>
+        <v>-0.02526801690272584</v>
       </c>
       <c r="E13">
-        <v>0.01137811114871302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02464721863823882</v>
+      </c>
+      <c r="F13">
+        <v>-0.006174601477581687</v>
+      </c>
+      <c r="G13">
+        <v>0.06903248841677084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007886411279422785</v>
+        <v>-0.0100393480120671</v>
       </c>
       <c r="C14">
-        <v>-0.0145718750965058</v>
+        <v>-0.02564065678012376</v>
       </c>
       <c r="D14">
-        <v>0.01171512236860049</v>
+        <v>-0.008547395050767216</v>
       </c>
       <c r="E14">
-        <v>-0.01084870002309556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004719927906526349</v>
+      </c>
+      <c r="F14">
+        <v>0.007749257559798745</v>
+      </c>
+      <c r="G14">
+        <v>0.06499602365092967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001501850810925828</v>
+        <v>-0.03419068378990778</v>
       </c>
       <c r="C16">
-        <v>-0.01278880950161028</v>
+        <v>-0.04688932835573704</v>
       </c>
       <c r="D16">
-        <v>0.04758157805501063</v>
+        <v>-0.001827510282441687</v>
       </c>
       <c r="E16">
-        <v>-0.002916424511017137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006297205649219715</v>
+      </c>
+      <c r="F16">
+        <v>-0.003206646755714585</v>
+      </c>
+      <c r="G16">
+        <v>0.05058474859676994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01418271504693111</v>
+        <v>-0.02600410888916009</v>
       </c>
       <c r="C19">
-        <v>-0.02370093225517024</v>
+        <v>-0.04864109054400771</v>
       </c>
       <c r="D19">
-        <v>0.01943079897330887</v>
+        <v>-0.01658311812573871</v>
       </c>
       <c r="E19">
-        <v>-0.005074876940057344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05540144232753392</v>
+      </c>
+      <c r="F19">
+        <v>-0.01701087768585667</v>
+      </c>
+      <c r="G19">
+        <v>0.08284132021783563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01109354619578969</v>
+        <v>-0.01566450153345249</v>
       </c>
       <c r="C20">
-        <v>-0.008936072672052599</v>
+        <v>-0.03386542205503653</v>
       </c>
       <c r="D20">
-        <v>0.009038424727342077</v>
+        <v>-0.01323922635370325</v>
       </c>
       <c r="E20">
-        <v>0.003020978760622552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02484012704580956</v>
+      </c>
+      <c r="F20">
+        <v>0.005922057460311765</v>
+      </c>
+      <c r="G20">
+        <v>0.06572190216776719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01503602940688981</v>
+        <v>-0.01457896093924383</v>
       </c>
       <c r="C21">
-        <v>-0.0238790807542389</v>
+        <v>-0.03623350493598765</v>
       </c>
       <c r="D21">
-        <v>0.02154169140519557</v>
+        <v>-0.01709617392748731</v>
       </c>
       <c r="E21">
-        <v>-0.01488752904564479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03376262029486238</v>
+      </c>
+      <c r="F21">
+        <v>0.001234948584552237</v>
+      </c>
+      <c r="G21">
+        <v>0.08938126147152271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004501757453211522</v>
+        <v>-0.02801619913627028</v>
       </c>
       <c r="C24">
-        <v>-0.001524266834548113</v>
+        <v>-0.04989566222884353</v>
       </c>
       <c r="D24">
-        <v>0.04279928043286901</v>
+        <v>-0.007303703516183</v>
       </c>
       <c r="E24">
-        <v>-0.0006374313632011448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003693088895346854</v>
+      </c>
+      <c r="F24">
+        <v>-0.01610077324144989</v>
+      </c>
+      <c r="G24">
+        <v>0.05107442221458146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01206933626944474</v>
+        <v>-0.04279226665174775</v>
       </c>
       <c r="C25">
-        <v>-0.01766290412033586</v>
+        <v>-0.05627322118176512</v>
       </c>
       <c r="D25">
-        <v>0.04540024756669621</v>
+        <v>-0.01125194041617119</v>
       </c>
       <c r="E25">
-        <v>0.0007626570894656595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004271036826961705</v>
+      </c>
+      <c r="F25">
+        <v>-0.01008328363763208</v>
+      </c>
+      <c r="G25">
+        <v>0.05518711929628146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02309964596094623</v>
+        <v>-0.01701249464781676</v>
       </c>
       <c r="C26">
-        <v>-0.01077525251293595</v>
+        <v>-0.008297327678237923</v>
       </c>
       <c r="D26">
-        <v>-0.007239819771616467</v>
+        <v>-0.02309462351189581</v>
       </c>
       <c r="E26">
-        <v>-0.007908976238536172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002676231759183462</v>
+      </c>
+      <c r="F26">
+        <v>0.007781758185120932</v>
+      </c>
+      <c r="G26">
+        <v>0.05405509265039312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04282213085279383</v>
+        <v>-0.1144219284302171</v>
       </c>
       <c r="C28">
-        <v>-0.2363864554772707</v>
+        <v>0.2350084548429842</v>
       </c>
       <c r="D28">
-        <v>-0.164474261761753</v>
+        <v>0.00800267315435681</v>
       </c>
       <c r="E28">
-        <v>-0.01600264111759477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>8.132046368732005e-05</v>
+      </c>
+      <c r="F28">
+        <v>0.01999240891458451</v>
+      </c>
+      <c r="G28">
+        <v>0.06405329374896195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008216379541446744</v>
+        <v>-0.01214369998305393</v>
       </c>
       <c r="C29">
-        <v>-0.01820616565284716</v>
+        <v>-0.01975800642170542</v>
       </c>
       <c r="D29">
-        <v>0.01002920456952364</v>
+        <v>-0.007360366581102267</v>
       </c>
       <c r="E29">
-        <v>-0.006702127981562809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007209872182585942</v>
+      </c>
+      <c r="F29">
+        <v>0.0167575203841322</v>
+      </c>
+      <c r="G29">
+        <v>0.05471196723086837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02353077020841954</v>
+        <v>-0.04733189692459196</v>
       </c>
       <c r="C30">
-        <v>-0.004719756829653406</v>
+        <v>-0.06279872350110621</v>
       </c>
       <c r="D30">
-        <v>0.06269472753542303</v>
+        <v>-0.02773313343778509</v>
       </c>
       <c r="E30">
-        <v>0.05337712613618419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04482299126127474</v>
+      </c>
+      <c r="F30">
+        <v>-0.0488164009736639</v>
+      </c>
+      <c r="G30">
+        <v>0.04684984998250228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009657381170162242</v>
+        <v>-0.05383528110526609</v>
       </c>
       <c r="C31">
-        <v>-0.0424275664491243</v>
+        <v>-0.03206091890696398</v>
       </c>
       <c r="D31">
-        <v>0.04174471604536986</v>
+        <v>-0.003041287188062532</v>
       </c>
       <c r="E31">
-        <v>-0.0103271786414849</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00776405370551186</v>
+      </c>
+      <c r="F31">
+        <v>0.0370196568203285</v>
+      </c>
+      <c r="G31">
+        <v>0.05178190755388915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006203323694348559</v>
+        <v>0.001648152776796457</v>
       </c>
       <c r="C32">
-        <v>-0.01928047085741687</v>
+        <v>-0.02916936521227114</v>
       </c>
       <c r="D32">
-        <v>-0.002057130026694239</v>
+        <v>0.004080091447492975</v>
       </c>
       <c r="E32">
-        <v>-0.03241925918468072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01469750464645988</v>
+      </c>
+      <c r="F32">
+        <v>-0.03936849286597794</v>
+      </c>
+      <c r="G32">
+        <v>0.07330404776522649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0138672842521877</v>
+        <v>-0.02877051247402979</v>
       </c>
       <c r="C33">
-        <v>-0.02655700092962668</v>
+        <v>-0.04621334333148411</v>
       </c>
       <c r="D33">
-        <v>0.02146367390567677</v>
+        <v>-0.01467282869761989</v>
       </c>
       <c r="E33">
-        <v>0.02586028427584639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02847939801317366</v>
+      </c>
+      <c r="F33">
+        <v>-0.01806666004849167</v>
+      </c>
+      <c r="G33">
+        <v>0.07598358121642786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004018446226433136</v>
+        <v>-0.03993154195558112</v>
       </c>
       <c r="C34">
-        <v>-0.01873453393003745</v>
+        <v>-0.06010373589560022</v>
       </c>
       <c r="D34">
-        <v>0.04851005297467011</v>
+        <v>0.004311812894622672</v>
       </c>
       <c r="E34">
-        <v>-0.008813971230913993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.002448057944247359</v>
+      </c>
+      <c r="F34">
+        <v>-0.02232867916554422</v>
+      </c>
+      <c r="G34">
+        <v>0.05857108793463481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01323982637797849</v>
+        <v>-0.01693701338621087</v>
       </c>
       <c r="C36">
-        <v>-0.02231498098389421</v>
+        <v>-0.009053287477921251</v>
       </c>
       <c r="D36">
-        <v>0.003419522554133268</v>
+        <v>-0.01135884934573767</v>
       </c>
       <c r="E36">
-        <v>-0.001558962468757222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0005452448406655788</v>
+      </c>
+      <c r="F36">
+        <v>0.008716714207332448</v>
+      </c>
+      <c r="G36">
+        <v>0.047105330257107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003267834779693482</v>
+        <v>-0.03358288094879248</v>
       </c>
       <c r="C38">
-        <v>-0.0367528126696558</v>
+        <v>-0.0282714348689799</v>
       </c>
       <c r="D38">
-        <v>0.03295289111660466</v>
+        <v>0.007651190703892953</v>
       </c>
       <c r="E38">
-        <v>-0.0005589575778871287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003709297200836571</v>
+      </c>
+      <c r="F38">
+        <v>0.01386315362112275</v>
+      </c>
+      <c r="G38">
+        <v>0.05212391414410063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004999568017923889</v>
+        <v>-0.03511259852530842</v>
       </c>
       <c r="C39">
-        <v>0.01738232574728675</v>
+        <v>-0.08168000037915707</v>
       </c>
       <c r="D39">
-        <v>0.09003663416800164</v>
+        <v>-0.01206528828227222</v>
       </c>
       <c r="E39">
-        <v>0.008760547049651037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02204606635579541</v>
+      </c>
+      <c r="F39">
+        <v>-0.02794848097396278</v>
+      </c>
+      <c r="G39">
+        <v>0.05195967150121714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01268865883256124</v>
+        <v>-0.02023312091484638</v>
       </c>
       <c r="C40">
-        <v>-0.02354605317408746</v>
+        <v>-0.03277596773817316</v>
       </c>
       <c r="D40">
-        <v>0.0305617055900858</v>
+        <v>-0.01343980313864208</v>
       </c>
       <c r="E40">
-        <v>0.001784568435749625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01983184657163384</v>
+      </c>
+      <c r="F40">
+        <v>-0.009484879415914148</v>
+      </c>
+      <c r="G40">
+        <v>0.05262289281299402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006328421872668117</v>
+        <v>-0.01628225899491946</v>
       </c>
       <c r="C41">
-        <v>-0.02228547945604262</v>
+        <v>-0.003609406142877211</v>
       </c>
       <c r="D41">
-        <v>-0.009091182744948275</v>
+        <v>-0.003793534058864122</v>
       </c>
       <c r="E41">
-        <v>-0.001572991542679501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002514433352612327</v>
+      </c>
+      <c r="F41">
+        <v>0.01195829906936714</v>
+      </c>
+      <c r="G41">
+        <v>0.03266262672934066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09323703302024365</v>
+        <v>-0.01301243363818299</v>
       </c>
       <c r="C42">
-        <v>0.003588100930249819</v>
+        <v>-0.03816504016199933</v>
       </c>
       <c r="D42">
-        <v>0.2631779759232012</v>
+        <v>-0.0941269246667725</v>
       </c>
       <c r="E42">
-        <v>0.3021721548917651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03374171436274998</v>
+      </c>
+      <c r="F42">
+        <v>0.03867330503352095</v>
+      </c>
+      <c r="G42">
+        <v>-0.1706782928386219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007868263858294861</v>
+        <v>-0.03229166098188604</v>
       </c>
       <c r="C43">
-        <v>-0.02646159125105088</v>
+        <v>-0.0133220066699744</v>
       </c>
       <c r="D43">
-        <v>-0.01325630563788976</v>
+        <v>-0.005065362918335678</v>
       </c>
       <c r="E43">
-        <v>0.005196787421638568</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009782062419862278</v>
+      </c>
+      <c r="F43">
+        <v>0.003583424997458265</v>
+      </c>
+      <c r="G43">
+        <v>0.05065796256945967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003465768287836062</v>
+        <v>-0.0183167082257991</v>
       </c>
       <c r="C44">
-        <v>-0.007554482194722293</v>
+        <v>-0.04862684907756851</v>
       </c>
       <c r="D44">
-        <v>0.02709710445189654</v>
+        <v>-0.00585742257390451</v>
       </c>
       <c r="E44">
-        <v>-0.0006689164689411199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01617387472775691</v>
+      </c>
+      <c r="F44">
+        <v>0.004052414174600542</v>
+      </c>
+      <c r="G44">
+        <v>0.0675112119869424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01121085687315633</v>
+        <v>-0.008705271147172459</v>
       </c>
       <c r="C46">
-        <v>-0.01622041233511311</v>
+        <v>-0.01612760341194128</v>
       </c>
       <c r="D46">
-        <v>0.01102795470617277</v>
+        <v>-0.01129260798331443</v>
       </c>
       <c r="E46">
-        <v>-0.0006969097203678276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.00621870367800402</v>
+      </c>
+      <c r="F46">
+        <v>0.01972639876652296</v>
+      </c>
+      <c r="G46">
+        <v>0.05239684108657971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004139620335994947</v>
+        <v>-0.07877467057635001</v>
       </c>
       <c r="C47">
-        <v>-0.05440395731735205</v>
+        <v>-0.06318109223936633</v>
       </c>
       <c r="D47">
-        <v>0.05865273668422487</v>
+        <v>0.005374233004503986</v>
       </c>
       <c r="E47">
-        <v>-0.002637309863216087</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01121285841221348</v>
+      </c>
+      <c r="F47">
+        <v>0.05468264308431894</v>
+      </c>
+      <c r="G47">
+        <v>0.04824345603400342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004189907805933694</v>
+        <v>-0.02264252184868675</v>
       </c>
       <c r="C48">
-        <v>-0.02788531299706779</v>
+        <v>-0.009873681873451138</v>
       </c>
       <c r="D48">
-        <v>0.01090001629615514</v>
+        <v>-0.0006467280662834238</v>
       </c>
       <c r="E48">
-        <v>-0.002943460107673942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004073961382497095</v>
+      </c>
+      <c r="F48">
+        <v>0.02129747042363449</v>
+      </c>
+      <c r="G48">
+        <v>0.05346901890786795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006117023603782867</v>
+        <v>-0.07987791928443716</v>
       </c>
       <c r="C50">
-        <v>-0.05459091123607348</v>
+        <v>-0.06371734779628586</v>
       </c>
       <c r="D50">
-        <v>0.06188820235554728</v>
+        <v>0.003645588939793574</v>
       </c>
       <c r="E50">
-        <v>-0.0329899543789906</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01515757568635877</v>
+      </c>
+      <c r="F50">
+        <v>0.05781123412314752</v>
+      </c>
+      <c r="G50">
+        <v>0.07132657294323298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007340304875055156</v>
+        <v>-0.01507970468884966</v>
       </c>
       <c r="C51">
-        <v>-0.01697445885942375</v>
+        <v>-0.03117093307954174</v>
       </c>
       <c r="D51">
-        <v>-0.002086620141062662</v>
+        <v>-0.009388668502338162</v>
       </c>
       <c r="E51">
-        <v>-0.002341229221235717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01201512440271139</v>
+      </c>
+      <c r="F51">
+        <v>-0.02333302044326218</v>
+      </c>
+      <c r="G51">
+        <v>0.07719331696170878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007480010006971806</v>
+        <v>-0.08630431390521109</v>
       </c>
       <c r="C53">
-        <v>-0.06620367355265475</v>
+        <v>-0.07755189913030559</v>
       </c>
       <c r="D53">
-        <v>0.118195787661492</v>
+        <v>0.004677857999802059</v>
       </c>
       <c r="E53">
-        <v>-0.01328760548756013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03421220689102739</v>
+      </c>
+      <c r="F53">
+        <v>0.05843228103155337</v>
+      </c>
+      <c r="G53">
+        <v>0.04380386164316248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001278599287868486</v>
+        <v>-0.03305385281280563</v>
       </c>
       <c r="C54">
-        <v>-0.03561853822467193</v>
+        <v>-0.01388768277607591</v>
       </c>
       <c r="D54">
-        <v>-0.007834681278846366</v>
+        <v>0.0026395533328427</v>
       </c>
       <c r="E54">
-        <v>-0.008425997241288416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002832343584318369</v>
+      </c>
+      <c r="F54">
+        <v>0.008654093877366332</v>
+      </c>
+      <c r="G54">
+        <v>0.0589166966392539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003851567194580124</v>
+        <v>-0.07498315184047809</v>
       </c>
       <c r="C55">
-        <v>-0.0465639595093726</v>
+        <v>-0.06641234478051107</v>
       </c>
       <c r="D55">
-        <v>0.1038422251714674</v>
+        <v>0.005561828274024398</v>
       </c>
       <c r="E55">
-        <v>-0.001387371251540779</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02724604131542993</v>
+      </c>
+      <c r="F55">
+        <v>0.05822502746813778</v>
+      </c>
+      <c r="G55">
+        <v>0.02754731950245545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006546609442525491</v>
+        <v>-0.1439392353938367</v>
       </c>
       <c r="C56">
-        <v>-0.09270756952626066</v>
+        <v>-0.100469394698314</v>
       </c>
       <c r="D56">
-        <v>0.1515587336077737</v>
+        <v>0.01289468854294716</v>
       </c>
       <c r="E56">
-        <v>-0.004447195823391221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03857406548594789</v>
+      </c>
+      <c r="F56">
+        <v>0.07504391255109499</v>
+      </c>
+      <c r="G56">
+        <v>0.007448213496556914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02433830078383649</v>
+        <v>-0.008643535032521157</v>
       </c>
       <c r="C57">
-        <v>-0.01654909560599618</v>
+        <v>-0.008852307909606682</v>
       </c>
       <c r="D57">
-        <v>0.04287616474124533</v>
+        <v>-0.02365550579682014</v>
       </c>
       <c r="E57">
-        <v>0.001883906505037462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02773209450354479</v>
+      </c>
+      <c r="F57">
+        <v>-0.01181543131738625</v>
+      </c>
+      <c r="G57">
+        <v>0.02682447671299323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.014874934536278</v>
+        <v>-0.07785443198710734</v>
       </c>
       <c r="C58">
-        <v>-0.09044502610909162</v>
+        <v>-0.03340245610695376</v>
       </c>
       <c r="D58">
-        <v>0.09860427361128116</v>
+        <v>-0.01912473932331321</v>
       </c>
       <c r="E58">
-        <v>0.2462576936172032</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9402855148914391</v>
+      </c>
+      <c r="F58">
+        <v>0.2370148720465729</v>
+      </c>
+      <c r="G58">
+        <v>-0.04366085804877147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03993430927422933</v>
+        <v>-0.1544655076976852</v>
       </c>
       <c r="C59">
-        <v>-0.2527766680561503</v>
+        <v>0.2139088040454231</v>
       </c>
       <c r="D59">
-        <v>-0.1648665878292674</v>
+        <v>0.01445670701917471</v>
       </c>
       <c r="E59">
-        <v>0.0007038977891379924</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.007393109051350795</v>
+      </c>
+      <c r="F59">
+        <v>-0.003395978966867471</v>
+      </c>
+      <c r="G59">
+        <v>0.02997656326100359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.0412227638952519</v>
+        <v>-0.2898381631404397</v>
       </c>
       <c r="C60">
-        <v>-0.163529270756822</v>
+        <v>-0.09543040662733709</v>
       </c>
       <c r="D60">
-        <v>0.0812523351339117</v>
+        <v>-0.01270785970570087</v>
       </c>
       <c r="E60">
-        <v>0.02741442626790334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0004215934332064181</v>
+      </c>
+      <c r="F60">
+        <v>-0.3472469684370288</v>
+      </c>
+      <c r="G60">
+        <v>-0.1054619587638811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003428048966434223</v>
+        <v>-0.03741347196488597</v>
       </c>
       <c r="C61">
-        <v>-0.007831247602583925</v>
+        <v>-0.06529122021794456</v>
       </c>
       <c r="D61">
-        <v>0.06397860881892502</v>
+        <v>-0.005462318584026463</v>
       </c>
       <c r="E61">
-        <v>0.001617398624761304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01138987360959307</v>
+      </c>
+      <c r="F61">
+        <v>-0.01740272583666401</v>
+      </c>
+      <c r="G61">
+        <v>0.04814604484088354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007760891231938776</v>
+        <v>-0.01537761359486622</v>
       </c>
       <c r="C63">
-        <v>-0.008963574196888469</v>
+        <v>-0.02803696079009322</v>
       </c>
       <c r="D63">
-        <v>0.008373263376605173</v>
+        <v>-0.007831071221480013</v>
       </c>
       <c r="E63">
-        <v>-0.007091308438863866</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003982521280406409</v>
+      </c>
+      <c r="F63">
+        <v>0.01793950670450402</v>
+      </c>
+      <c r="G63">
+        <v>0.05677356425793151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008663772160772538</v>
+        <v>-0.05044000828810424</v>
       </c>
       <c r="C64">
-        <v>-0.0311684781373008</v>
+        <v>-0.04319594550955558</v>
       </c>
       <c r="D64">
-        <v>0.06470772243424942</v>
+        <v>-0.005645336681491479</v>
       </c>
       <c r="E64">
-        <v>0.01352164845968304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.00499830576812649</v>
+      </c>
+      <c r="F64">
+        <v>-0.002345173340145895</v>
+      </c>
+      <c r="G64">
+        <v>0.04091648700417462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0167725607900022</v>
+        <v>-0.08205489615894766</v>
       </c>
       <c r="C65">
-        <v>-0.007906330927231227</v>
+        <v>-0.05640494866358852</v>
       </c>
       <c r="D65">
-        <v>0.1025910464727778</v>
+        <v>-0.01519037055370892</v>
       </c>
       <c r="E65">
-        <v>-0.01374809086318409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01937335375171408</v>
+      </c>
+      <c r="F65">
+        <v>-0.02955539609432626</v>
+      </c>
+      <c r="G65">
+        <v>0.01937628146546947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004716326778641745</v>
+        <v>-0.05269263841949639</v>
       </c>
       <c r="C66">
-        <v>0.01221396489684295</v>
+        <v>-0.1127161861706343</v>
       </c>
       <c r="D66">
-        <v>0.1184400458104923</v>
+        <v>-0.01196169478811247</v>
       </c>
       <c r="E66">
-        <v>0.0183048836982793</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02763835658029333</v>
+      </c>
+      <c r="F66">
+        <v>-0.03501318400166775</v>
+      </c>
+      <c r="G66">
+        <v>0.0501936634959239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003215784190184075</v>
+        <v>-0.05523979799262368</v>
       </c>
       <c r="C67">
-        <v>-0.05764576878714786</v>
+        <v>-0.03159820230547002</v>
       </c>
       <c r="D67">
-        <v>0.03885028220015484</v>
+        <v>0.00568294624578011</v>
       </c>
       <c r="E67">
-        <v>-0.0008153932003746643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002621091914084212</v>
+      </c>
+      <c r="F67">
+        <v>0.01525482176142629</v>
+      </c>
+      <c r="G67">
+        <v>0.04867387255620421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05731456224532005</v>
+        <v>-0.1391699523846767</v>
       </c>
       <c r="C68">
-        <v>-0.2303568322297175</v>
+        <v>0.274813082424068</v>
       </c>
       <c r="D68">
-        <v>-0.1579060448722084</v>
+        <v>-0.003592559681173621</v>
       </c>
       <c r="E68">
-        <v>0.01086315317370514</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.006524187943757685</v>
+      </c>
+      <c r="F68">
+        <v>0.03216612156800101</v>
+      </c>
+      <c r="G68">
+        <v>0.02344659718799759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001022680120812575</v>
+        <v>-0.08082566536123952</v>
       </c>
       <c r="C69">
-        <v>-0.04184684295758841</v>
+        <v>-0.06649691861036279</v>
       </c>
       <c r="D69">
-        <v>0.06315925564352669</v>
+        <v>0.009323061114901738</v>
       </c>
       <c r="E69">
-        <v>-0.004992442282682706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0290848105802414</v>
+      </c>
+      <c r="F69">
+        <v>0.03907073602627446</v>
+      </c>
+      <c r="G69">
+        <v>0.05077883881353946</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04265338426074803</v>
+        <v>-0.1303018164543002</v>
       </c>
       <c r="C71">
-        <v>-0.2043992890754151</v>
+        <v>0.2364224594172827</v>
       </c>
       <c r="D71">
-        <v>-0.1428974748453219</v>
+        <v>0.005232461124855379</v>
       </c>
       <c r="E71">
-        <v>-0.001736769623269528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02466580947532897</v>
+      </c>
+      <c r="F71">
+        <v>0.009405923218714661</v>
+      </c>
+      <c r="G71">
+        <v>0.04161457263246681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-7.170741247044893e-05</v>
+        <v>-0.08783780044831921</v>
       </c>
       <c r="C72">
-        <v>-0.0479641685653911</v>
+        <v>-0.07249531721560809</v>
       </c>
       <c r="D72">
-        <v>0.1346831245058532</v>
+        <v>0.007919883861123512</v>
       </c>
       <c r="E72">
-        <v>0.01311830221620047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00282214760516216</v>
+      </c>
+      <c r="F72">
+        <v>-0.04351024595696664</v>
+      </c>
+      <c r="G72">
+        <v>0.03264687588962299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05425854648213047</v>
+        <v>-0.3859862075500572</v>
       </c>
       <c r="C73">
-        <v>-0.1893065644850819</v>
+        <v>-0.1062064601946249</v>
       </c>
       <c r="D73">
-        <v>0.1793315583037909</v>
+        <v>-0.02164446852227225</v>
       </c>
       <c r="E73">
-        <v>0.07676808944283232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07022654726313718</v>
+      </c>
+      <c r="F73">
+        <v>-0.5689336325614273</v>
+      </c>
+      <c r="G73">
+        <v>-0.1862830954842782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003440569806873483</v>
+        <v>-0.114690954212049</v>
       </c>
       <c r="C74">
-        <v>-0.08161342490655803</v>
+        <v>-0.1102202770290519</v>
       </c>
       <c r="D74">
-        <v>0.1599181698840208</v>
+        <v>0.0102792494672119</v>
       </c>
       <c r="E74">
-        <v>0.002351127606033836</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0171873585552632</v>
+      </c>
+      <c r="F74">
+        <v>0.07336567532880453</v>
+      </c>
+      <c r="G74">
+        <v>0.05017959349225194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01228924650866554</v>
+        <v>-0.2505854688721251</v>
       </c>
       <c r="C75">
-        <v>-0.1885292149305357</v>
+        <v>-0.1456548976259032</v>
       </c>
       <c r="D75">
-        <v>0.2863924588303056</v>
+        <v>0.02973530253168669</v>
       </c>
       <c r="E75">
-        <v>0.01215288773740452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05654757950613801</v>
+      </c>
+      <c r="F75">
+        <v>0.1777315536701292</v>
+      </c>
+      <c r="G75">
+        <v>-0.04999252520018249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0005292281718085671</v>
+        <v>-0.1289924390473279</v>
       </c>
       <c r="C76">
-        <v>-0.1198185239959109</v>
+        <v>-0.1136694065710472</v>
       </c>
       <c r="D76">
-        <v>0.2323145909072629</v>
+        <v>0.02064833102637816</v>
       </c>
       <c r="E76">
-        <v>-0.02434618013041663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04770162379067715</v>
+      </c>
+      <c r="F76">
+        <v>0.1174332000960791</v>
+      </c>
+      <c r="G76">
+        <v>0.0260327414921293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01256706102293621</v>
+        <v>-0.06754714882599873</v>
       </c>
       <c r="C77">
-        <v>-0.02048133624703781</v>
+        <v>-0.05748053244658549</v>
       </c>
       <c r="D77">
-        <v>0.04791209710053025</v>
+        <v>-0.01190903427198517</v>
       </c>
       <c r="E77">
-        <v>0.01352387649328595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04879822203747698</v>
+      </c>
+      <c r="F77">
+        <v>-0.00910848718558081</v>
+      </c>
+      <c r="G77">
+        <v>0.05432398392517605</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004789914735853555</v>
+        <v>-0.045884947768222</v>
       </c>
       <c r="C78">
-        <v>-0.01619272340141745</v>
+        <v>-0.0515664142137475</v>
       </c>
       <c r="D78">
-        <v>0.06435025681516189</v>
+        <v>-0.005314025237249415</v>
       </c>
       <c r="E78">
-        <v>0.003950816448748658</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02050071257868157</v>
+      </c>
+      <c r="F78">
+        <v>-0.03316247256135419</v>
+      </c>
+      <c r="G78">
+        <v>0.05589997899057234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01693829592390809</v>
+        <v>-0.05524237119927203</v>
       </c>
       <c r="C80">
-        <v>-0.09168418964387821</v>
+        <v>-0.0546850896567136</v>
       </c>
       <c r="D80">
-        <v>0.1427663346214158</v>
+        <v>-0.01079031958690091</v>
       </c>
       <c r="E80">
-        <v>-0.8965207294692692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0328762017062438</v>
+      </c>
+      <c r="F80">
+        <v>-0.02211942565020225</v>
+      </c>
+      <c r="G80">
+        <v>0.8004482987309003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008174994108868299</v>
+        <v>-0.1436630271942109</v>
       </c>
       <c r="C81">
-        <v>-0.1148158674311391</v>
+        <v>-0.08846250096120931</v>
       </c>
       <c r="D81">
-        <v>0.1719867600355768</v>
+        <v>0.01538286555804919</v>
       </c>
       <c r="E81">
-        <v>-0.0103842428246197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0345239167214931</v>
+      </c>
+      <c r="F81">
+        <v>0.1266780932004732</v>
+      </c>
+      <c r="G81">
+        <v>0.02012227119188248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1204680874350088</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05836266783919516</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006263855754218123</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08209820656408966</v>
+      </c>
+      <c r="F82">
+        <v>0.02121470305619591</v>
+      </c>
+      <c r="G82">
+        <v>0.02712955629838434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007434684772982038</v>
+        <v>-0.03057445845669819</v>
       </c>
       <c r="C83">
-        <v>-0.02197813524843234</v>
+        <v>-0.02087198279374876</v>
       </c>
       <c r="D83">
-        <v>0.02359267561051823</v>
+        <v>-0.005881067534615975</v>
       </c>
       <c r="E83">
-        <v>0.0009097012543853723</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02759454739337392</v>
+      </c>
+      <c r="F83">
+        <v>-0.03670284159974493</v>
+      </c>
+      <c r="G83">
+        <v>0.03451593814276051</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01850974557335551</v>
+        <v>-0.219656505943005</v>
       </c>
       <c r="C85">
-        <v>-0.1479659053358593</v>
+        <v>-0.1413465730810481</v>
       </c>
       <c r="D85">
-        <v>0.2651444828583638</v>
+        <v>0.0175050099927443</v>
       </c>
       <c r="E85">
-        <v>0.01403520740582856</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09515173060247718</v>
+      </c>
+      <c r="F85">
+        <v>0.1376142329018589</v>
+      </c>
+      <c r="G85">
+        <v>-0.08590541049442112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008323093294699853</v>
+        <v>-0.01639780480565177</v>
       </c>
       <c r="C86">
-        <v>-0.02987869711741153</v>
+        <v>-0.02197876373273281</v>
       </c>
       <c r="D86">
-        <v>0.009638376846759257</v>
+        <v>-0.01092252069960047</v>
       </c>
       <c r="E86">
-        <v>0.03307288148305729</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0392167991968621</v>
+      </c>
+      <c r="F86">
+        <v>-0.04089131155695439</v>
+      </c>
+      <c r="G86">
+        <v>0.1007132973927446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007797980910500201</v>
+        <v>-0.02313815037077393</v>
       </c>
       <c r="C87">
-        <v>-0.01266819558200513</v>
+        <v>-0.02476766069486969</v>
       </c>
       <c r="D87">
-        <v>0.04246722200946702</v>
+        <v>-0.0108759062737185</v>
       </c>
       <c r="E87">
-        <v>0.008039638272202578</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08289334682971003</v>
+      </c>
+      <c r="F87">
+        <v>-0.02074655939379714</v>
+      </c>
+      <c r="G87">
+        <v>0.07431467223061378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02814789817596028</v>
+        <v>-0.09154090089857285</v>
       </c>
       <c r="C88">
-        <v>-0.0351113826175243</v>
+        <v>-0.06349737132069719</v>
       </c>
       <c r="D88">
-        <v>0.0366363149594375</v>
+        <v>-0.02284478663444165</v>
       </c>
       <c r="E88">
-        <v>0.0009146313306751514</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01337640287436892</v>
+      </c>
+      <c r="F88">
+        <v>0.02173138341581495</v>
+      </c>
+      <c r="G88">
+        <v>0.04644355853769652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07929444735654646</v>
+        <v>-0.2155998212366921</v>
       </c>
       <c r="C89">
-        <v>-0.3657645655384228</v>
+        <v>0.3738904911993086</v>
       </c>
       <c r="D89">
-        <v>-0.2399762708634619</v>
+        <v>0.004121148126125762</v>
       </c>
       <c r="E89">
-        <v>0.01777799557653233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02151427081250177</v>
+      </c>
+      <c r="F89">
+        <v>0.02487051334909198</v>
+      </c>
+      <c r="G89">
+        <v>0.03146240514461996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06077528937558069</v>
+        <v>-0.193191913043475</v>
       </c>
       <c r="C90">
-        <v>-0.2834301941447274</v>
+        <v>0.333833976906562</v>
       </c>
       <c r="D90">
-        <v>-0.2159073670204393</v>
+        <v>0.00840133653549791</v>
       </c>
       <c r="E90">
-        <v>0.02003360229928992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02015323136343256</v>
+      </c>
+      <c r="F90">
+        <v>0.04903576771226101</v>
+      </c>
+      <c r="G90">
+        <v>0.007705980458566766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.008098131778618661</v>
+        <v>-0.1952297611975242</v>
       </c>
       <c r="C91">
-        <v>-0.162659090965906</v>
+        <v>-0.1347496347898725</v>
       </c>
       <c r="D91">
-        <v>0.2434787166282339</v>
+        <v>0.02347243386032498</v>
       </c>
       <c r="E91">
-        <v>-0.01010791025872158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0725717623784866</v>
+      </c>
+      <c r="F91">
+        <v>0.1564959287816704</v>
+      </c>
+      <c r="G91">
+        <v>0.00686375560449425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02791308242798826</v>
+        <v>-0.1922389052616534</v>
       </c>
       <c r="C92">
-        <v>-0.3087328521482678</v>
+        <v>0.2680158908618667</v>
       </c>
       <c r="D92">
-        <v>-0.09681349608644069</v>
+        <v>0.04326909222716351</v>
       </c>
       <c r="E92">
-        <v>0.00530420604961236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.010476643092452</v>
+      </c>
+      <c r="F92">
+        <v>0.05708980614939754</v>
+      </c>
+      <c r="G92">
+        <v>0.08851891376486294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05939162172366918</v>
+        <v>-0.2181458432151925</v>
       </c>
       <c r="C93">
-        <v>-0.3134750235460233</v>
+        <v>0.3291419574632329</v>
       </c>
       <c r="D93">
-        <v>-0.2073239542274837</v>
+        <v>0.01468854540277024</v>
       </c>
       <c r="E93">
-        <v>0.03353538101562047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005842710925575193</v>
+      </c>
+      <c r="F93">
+        <v>0.03446531281648433</v>
+      </c>
+      <c r="G93">
+        <v>0.01204801906546077</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03164247864097192</v>
+        <v>-0.3187977374764579</v>
       </c>
       <c r="C94">
-        <v>-0.1914878036524866</v>
+        <v>-0.1654917962261717</v>
       </c>
       <c r="D94">
-        <v>0.2474413880173311</v>
+        <v>0.01691350676850555</v>
       </c>
       <c r="E94">
-        <v>0.03024048525981392</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.158261319939191</v>
+      </c>
+      <c r="F94">
+        <v>0.4885686784459713</v>
+      </c>
+      <c r="G94">
+        <v>-0.2265551832980194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004167265500007613</v>
+        <v>-0.09873274669086735</v>
       </c>
       <c r="C95">
-        <v>-0.04134704714492236</v>
+        <v>-0.08607883502358722</v>
       </c>
       <c r="D95">
-        <v>0.09567446903542512</v>
+        <v>0.00775260516150135</v>
       </c>
       <c r="E95">
-        <v>0.118266204886132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07029100100644538</v>
+      </c>
+      <c r="F95">
+        <v>-0.1773195387608327</v>
+      </c>
+      <c r="G95">
+        <v>-0.04342966794092482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01557228081567387</v>
+        <v>-0.2009696082312828</v>
       </c>
       <c r="C98">
-        <v>-0.1692092726981478</v>
+        <v>-0.04287955883157635</v>
       </c>
       <c r="D98">
-        <v>0.1223475659946941</v>
+        <v>0.01260241888893297</v>
       </c>
       <c r="E98">
-        <v>0.05236688067800564</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06792350601041261</v>
+      </c>
+      <c r="F98">
+        <v>-0.2468330878959745</v>
+      </c>
+      <c r="G98">
+        <v>-0.02578798256345056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008000956247525283</v>
+        <v>-0.01195207433056281</v>
       </c>
       <c r="C101">
-        <v>-0.01789964266637691</v>
+        <v>-0.0197047897845181</v>
       </c>
       <c r="D101">
-        <v>0.009745684116226207</v>
+        <v>-0.007183461277691132</v>
       </c>
       <c r="E101">
-        <v>-0.007149164490217428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007463569127315728</v>
+      </c>
+      <c r="F101">
+        <v>0.01781020461713166</v>
+      </c>
+      <c r="G101">
+        <v>0.05445267960557169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01838906834019726</v>
+        <v>-0.1206816705086631</v>
       </c>
       <c r="C102">
-        <v>-0.0836131485342434</v>
+        <v>-0.08136968988969072</v>
       </c>
       <c r="D102">
-        <v>0.1257056187058813</v>
+        <v>-0.001343519966431052</v>
       </c>
       <c r="E102">
-        <v>-0.0008333741269326714</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03222793346760992</v>
+      </c>
+      <c r="F102">
+        <v>0.04074123431996547</v>
+      </c>
+      <c r="G102">
+        <v>0.0002558187003525709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001935271091526915</v>
+        <v>-0.003641408016769009</v>
       </c>
       <c r="C103">
-        <v>-0.01200575956767223</v>
+        <v>-0.003428677961714061</v>
       </c>
       <c r="D103">
-        <v>0.02259046366487151</v>
+        <v>-0.0001091769347516702</v>
       </c>
       <c r="E103">
-        <v>-0.008017613417265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002389817512730363</v>
+      </c>
+      <c r="F103">
+        <v>0.005587265488634779</v>
+      </c>
+      <c r="G103">
+        <v>0.009409240824433401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9760924052307093</v>
+        <v>-0.02393239051331128</v>
       </c>
       <c r="C104">
-        <v>0.1708890691126715</v>
+        <v>0.03619722678971297</v>
       </c>
       <c r="D104">
-        <v>-0.006621602546247141</v>
+        <v>-0.9875436957508913</v>
       </c>
       <c r="E104">
-        <v>-0.02936924925298927</v>
+        <v>0.0431922763799297</v>
+      </c>
+      <c r="F104">
+        <v>0.04064265144807658</v>
+      </c>
+      <c r="G104">
+        <v>-0.01404395629366758</v>
       </c>
     </row>
   </sheetData>
